--- a/houtai/base/biz/main/src/main/resources/static/file/导入模板.xlsx
+++ b/houtai/base/biz/main/src/main/resources/static/file/导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30400" windowHeight="15920"/>
+    <workbookView windowWidth="23800" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>姓名</t>
   </si>
@@ -37,10 +37,10 @@
     <t>准驾车型</t>
   </si>
   <si>
-    <t>特长</t>
-  </si>
-  <si>
-    <t>是否退役军人</t>
+    <t>特殊人员</t>
+  </si>
+  <si>
+    <t>资格证书</t>
   </si>
   <si>
     <t>户籍地址</t>
@@ -52,9 +52,6 @@
     <t>性别</t>
   </si>
   <si>
-    <t>年龄</t>
-  </si>
-  <si>
     <t>籍贯</t>
   </si>
   <si>
@@ -70,7 +67,7 @@
     <t>身份证</t>
   </si>
   <si>
-    <t>手机号码</t>
+    <t>手机</t>
   </si>
   <si>
     <t>人员类别</t>
@@ -97,12 +94,6 @@
     <t>合同生效时间</t>
   </si>
   <si>
-    <t>退休时间</t>
-  </si>
-  <si>
-    <t>离职类别</t>
-  </si>
-  <si>
     <t>工作单位</t>
   </si>
   <si>
@@ -130,6 +121,9 @@
     <t>离职原因</t>
   </si>
   <si>
+    <t>示例，该行不要删除</t>
+  </si>
+  <si>
     <t>小张</t>
   </si>
   <si>
@@ -142,46 +136,52 @@
     <t>广东工业大学</t>
   </si>
   <si>
-    <t>00001</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>篮球</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>广东广州</t>
+    <t>PY000001</t>
+  </si>
+  <si>
+    <t>A1,B1</t>
+  </si>
+  <si>
+    <t>退役军人,A1驾照</t>
+  </si>
+  <si>
+    <t>英语4级,计算机二级</t>
+  </si>
+  <si>
+    <t>广东省汕头市澄海区XX街道XX小区45栋405</t>
+  </si>
+  <si>
+    <t>广东省广州市海珠区XX街道XX小区45栋405</t>
   </si>
   <si>
     <t>男</t>
   </si>
   <si>
-    <t>研究生</t>
-  </si>
-  <si>
-    <t>软件</t>
+    <t>广东省汕头市</t>
+  </si>
+  <si>
+    <t>本科</t>
+  </si>
+  <si>
+    <t>软件工程</t>
   </si>
   <si>
     <t>未婚</t>
   </si>
   <si>
-    <t>4408831993101134666</t>
-  </si>
-  <si>
-    <t>13567865432</t>
+    <t>440583199301111111</t>
+  </si>
+  <si>
+    <t>13631474444</t>
   </si>
   <si>
     <t>在职</t>
   </si>
   <si>
-    <t>公建辅警</t>
-  </si>
-  <si>
-    <t>医务</t>
+    <t>区自建辅警</t>
+  </si>
+  <si>
+    <t>系统开发与管理</t>
   </si>
   <si>
     <t>一级辅警</t>
@@ -193,29 +193,48 @@
     <t>公开招聘</t>
   </si>
   <si>
-    <t>辞职</t>
-  </si>
-  <si>
     <t>人事组</t>
   </si>
   <si>
     <t>文职辅警</t>
   </si>
   <si>
-    <t>家庭原因</t>
+    <t>456456456456456</t>
+  </si>
+  <si>
+    <t>个人原因</t>
+  </si>
+  <si>
+    <t>小明</t>
+  </si>
+  <si>
+    <t>PY000002</t>
+  </si>
+  <si>
+    <t>440583199301111112</t>
+  </si>
+  <si>
+    <t>小红</t>
+  </si>
+  <si>
+    <t>PY000003</t>
+  </si>
+  <si>
+    <t>440583199301111113</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -227,26 +246,43 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="黑体-简"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11.25"/>
       <color rgb="FF404040"/>
-      <name val="黑体-简"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,15 +297,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,8 +319,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,89 +403,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -391,13 +419,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,7 +551,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,49 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,103 +599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,66 +616,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -682,176 +651,250 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1173,203 +1216,198 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL6" sqref="AL6"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="14.7232142857143" customWidth="1"/>
-    <col min="3" max="3" width="10.7053571428571" customWidth="1"/>
-    <col min="4" max="4" width="13.9821428571429" customWidth="1"/>
-    <col min="5" max="5" width="15.3214285714286" customWidth="1"/>
-    <col min="6" max="6" width="14.4285714285714" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.6071428571429" customWidth="1"/>
-    <col min="8" max="8" width="18.8928571428571" customWidth="1"/>
-    <col min="9" max="9" width="16.6607142857143" customWidth="1"/>
-    <col min="10" max="10" width="20.9732142857143" customWidth="1"/>
-    <col min="11" max="11" width="17.5535714285714" customWidth="1"/>
-    <col min="14" max="14" width="12.4910714285714" customWidth="1"/>
-    <col min="17" max="17" width="9.8125" customWidth="1"/>
-    <col min="18" max="18" width="27.0803571428571" style="2" customWidth="1"/>
-    <col min="19" max="19" width="19.1875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="12.4910714285714" customWidth="1"/>
-    <col min="21" max="21" width="13.9821428571429" customWidth="1"/>
-    <col min="22" max="22" width="17.8571428571429" customWidth="1"/>
-    <col min="23" max="23" width="15.1785714285714" customWidth="1"/>
+    <col min="1" max="1" width="11.4553571428571" customWidth="1"/>
+    <col min="3" max="3" width="13.0892857142857" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.1517857142857" customWidth="1"/>
+    <col min="6" max="6" width="14.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="11.3035714285714" customWidth="1"/>
+    <col min="8" max="8" width="12.6428571428571" customWidth="1"/>
+    <col min="9" max="9" width="18.3035714285714" customWidth="1"/>
+    <col min="10" max="10" width="22.1696428571429" customWidth="1"/>
+    <col min="11" max="11" width="43.9017857142857" customWidth="1"/>
+    <col min="12" max="12" width="42.25" customWidth="1"/>
+    <col min="14" max="14" width="16.2142857142857" customWidth="1"/>
+    <col min="15" max="15" width="10.7142857142857" customWidth="1"/>
+    <col min="16" max="16" width="10.2678571428571" customWidth="1"/>
+    <col min="17" max="17" width="11.4553571428571" customWidth="1"/>
+    <col min="18" max="18" width="21.875" customWidth="1"/>
+    <col min="19" max="19" width="14.4375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="11.75" customWidth="1"/>
+    <col min="21" max="21" width="14.4375" customWidth="1"/>
+    <col min="22" max="22" width="17.2589285714286" customWidth="1"/>
+    <col min="23" max="23" width="13.8303571428571" customWidth="1"/>
     <col min="24" max="24" width="11.0089285714286" customWidth="1"/>
-    <col min="25" max="25" width="13.8392857142857" customWidth="1"/>
-    <col min="26" max="28" width="14.7232142857143" customWidth="1"/>
-    <col min="29" max="29" width="11.75" customWidth="1"/>
-    <col min="30" max="30" width="27.375" customWidth="1"/>
-    <col min="31" max="31" width="13.0892857142857" customWidth="1"/>
-    <col min="32" max="32" width="13.2410714285714" customWidth="1"/>
-    <col min="33" max="33" width="12.1964285714286" customWidth="1"/>
-    <col min="34" max="34" width="22.3214285714286" customWidth="1"/>
-    <col min="35" max="37" width="14.7232142857143" customWidth="1"/>
-    <col min="38" max="38" width="21.125" customWidth="1"/>
+    <col min="25" max="25" width="11.8928571428571" customWidth="1"/>
+    <col min="26" max="26" width="15.7678571428571" style="2" customWidth="1"/>
+    <col min="27" max="27" width="16.3660714285714" customWidth="1"/>
+    <col min="28" max="28" width="13.5357142857143" customWidth="1"/>
+    <col min="29" max="29" width="11.3035714285714" customWidth="1"/>
+    <col min="30" max="30" width="10.8571428571429" customWidth="1"/>
+    <col min="31" max="31" width="17.4017857142857" customWidth="1"/>
+    <col min="32" max="32" width="19.6428571428571" style="3" customWidth="1"/>
+    <col min="33" max="33" width="18.75" style="2" customWidth="1"/>
+    <col min="34" max="34" width="17.8571428571429" style="2" customWidth="1"/>
+    <col min="35" max="35" width="14.5803571428571" style="2" customWidth="1"/>
+    <col min="36" max="36" width="12.7857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="1:38">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="2:36">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+    </row>
+    <row r="2" ht="53" spans="1:36">
+      <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="C2" s="2">
+        <v>33982</v>
+      </c>
+      <c r="D2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:38">
-      <c r="A2" t="s">
+      <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4">
-        <v>43925</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>43</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>44</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>45</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>46</v>
       </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>47</v>
-      </c>
-      <c r="M2">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>46</v>
       </c>
       <c r="O2" t="s">
         <v>48</v>
@@ -1380,10 +1418,10 @@
       <c r="Q2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="3" t="s">
         <v>52</v>
       </c>
       <c r="T2" t="s">
@@ -1404,14 +1442,14 @@
       <c r="Y2" t="s">
         <v>58</v>
       </c>
-      <c r="Z2" s="4">
-        <v>43925</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>43925</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>43925</v>
+      <c r="Z2" s="2">
+        <v>42370</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>42370</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>59</v>
       </c>
       <c r="AC2" t="s">
         <v>59</v>
@@ -1420,90 +1458,288 @@
         <v>60</v>
       </c>
       <c r="AE2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>42370</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="2:36">
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2">
+        <v>33982</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>42370</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>42370</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" t="s">
         <v>60</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AE3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG3" s="2">
+        <v>42370</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36">
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2">
+        <v>33982</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" t="s">
         <v>55</v>
       </c>
-      <c r="AH2">
-        <v>11111</v>
-      </c>
-      <c r="AI2" s="4">
-        <v>43925</v>
-      </c>
-      <c r="AJ2" s="4">
-        <v>43925</v>
-      </c>
-      <c r="AK2" s="4">
-        <v>43925</v>
-      </c>
-      <c r="AL2" t="s">
+      <c r="W4" t="s">
+        <v>56</v>
+      </c>
+      <c r="X4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>42370</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>42370</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>42370</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="3:3">
-      <c r="C3" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="20">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 Z1 AA1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 D1 I1 L1 M1 O1 Q1 T1 U1 V1 W1 X1 Y1 AC1 AD1 AE1 AF1 A$1:A$1048576 E$1:E$1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G2:G9 G10:G11 G12:G1048576">
-      <formula1>"A1,A2,A3,B1,B2,C1,C2,C3,C4,C5,D,E,F,M,N,P"</formula1>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="格式" prompt="yyyy/MM/dd" sqref="AA1 AG1 AA2 AG2 AH2 AI2 Z3 AA3 AG3 AH3 AI3 Z4 AA4 AG4 AH4 AI4 Z1:Z2 Z5:Z1048576 AA5:AA1048576 AG5:AG1048576">
+      <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="格式：" prompt="1990/1/1" sqref="Z2 AA2 AB2 AI2 AJ2 AK2 B2:B1048576 Z3:Z1048576 AA3:AA1048576 AB3:AB1048576 AI3:AI1048576 AJ3:AJ1048576 AK3:AK1048576">
-      <formula1>32874</formula1>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="格式" prompt="yyyy/MM/dd，可不填" sqref="AH1:AI1 AH5:AI1048576">
+      <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
-      <formula1>"汉族,蒙古族,回族,藏族,维吾尔族,苗族,彝族,土家族,藏族,蒙古族,侗族,布依族,瑶族,白族,朝鲜族,哈尼族,黎族,哈萨克族,傣族,畲族,傈傈族,东乡族,仡佬族,拉枯族,佤族,水族,纳西族,羌族,土族,仫佬族,锡伯族,柯尔克孜族,景颇族,达翰尔族,撒拉族,布朗族,毛南族,塔吉克族,普米族,阿昌族,怒族,鄂温克族,京族,基若族,德昂族,保安族,俄罗斯族,乌孜别克族,门巴族,鄂伦春族,独龙族,赫哲族,高山族,珞巴族,塔塔尔族"</formula1>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="格式" prompt="A1,A2,A3,B1,B3,C1,C2,C3,C4,C5,D,E,F,M,N,P（多选逗号隔开）" sqref="H2 H3 H4 H5:H1048576"/>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="格式：" prompt="1990/1/1" sqref="C3 C4 C1:C2 C5:C1048576">
+      <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D1:D2 D5:D1048576">
+      <formula1>"汉族,壮族,回族,满族,维吾尔族,苗族,彝族,土家族,藏族,蒙古族,侗族,布依族,瑶族,白族,朝鲜族,哈尼族,黎族,哈萨克族,傣族,畲族,傈傈族,东乡族,仡佬族,拉枯族,佤族,水族,纳西族,羌族,土族,仫佬族,锡伯族,柯尔克孜族,景颇族,达翰尔族,撒拉族,布朗族,毛南族,塔吉克族,欧米族,阿昌族,怒族,鄂温克族,京族,基若族,德昂族,保安族,俄罗斯族,裕固族,乌孜别克族,门巴族,鄂伦春族,独龙族,赫哲族,高山族,珞巴族,塔塔尔族"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E1:E2 E5:E1048576">
       <formula1>"中共党员,中共预备党员,群众,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="格式" prompt="PY + 6位数字" sqref="G3 G4 G1:G2 G5:G1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="格式" prompt="退役军人,A1驾照,摩托车牌,计算机相关专业,中文文秘相关专业,会计相关专业（多选逗号隔开）" sqref="I3 I4 I1:I2 I5:I1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3 M4 M1:M2 M5:M1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="格式：" prompt="1-100数字" sqref="M2:M1048576">
-      <formula1>1</formula1>
-      <formula2>100</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3 O4 O1:O2 O5:O1048576">
       <formula1>"研究生,本科,大专,高中,中专,初中"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3 Q4 Q1:Q2 Q5:Q1048576">
       <formula1>"未婚,已婚,离婚,丧偶"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576">
-      <formula1>"在职,离职,退休"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3 T4 T1:T2 T5:T1048576">
+      <formula1>"在职,辞职,退休,辞退,调离,去世"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3 U4 U1:U2 U5:U1048576">
       <formula1>"公建辅警,区自建辅警"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
-      <formula1>"医务,心里咨询"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="格式" prompt="参考[备注1]" sqref="V3 V4 V1:V2 V5:V1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3 W4 W1:W2 W5:W1048576">
       <formula1>"一级辅警,一级辅警(三级岗),二级辅警"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3 X4 X1:X2 X5:X1048576">
       <formula1>"三级,四级,五级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3 Y4 Y1:Y2 Y5:Y1048576">
       <formula1>"公开招聘,划转过渡,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
-      <formula1>"辞职,退休,辞退,调离,去世"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="格式：" prompt="请填写系统中[单位管理]中存在的名称" sqref="AD2:AD1048576 AE2:AE1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="格式" prompt="请填写系统[单位管理]中存在的单位" sqref="AB3 AC3 AB4 AC4 AB1:AB2 AB5:AB1048576 AC1:AC2 AC5:AC1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3 AD4 AD1:AD2 AD5:AD1048576">
       <formula1>"文职辅警,勤务辅警"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="格式" prompt="可不填" sqref="AJ3 AJ4 AJ1:AJ2 AJ5:AJ1048576"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/houtai/base/biz/main/src/main/resources/static/file/导入模板.xlsx
+++ b/houtai/base/biz/main/src/main/resources/static/file/导入模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
   <si>
     <t>姓名</t>
   </si>
@@ -121,6 +121,39 @@
     <t>离职原因</t>
   </si>
   <si>
+    <t>任一级辅警起算时间</t>
+  </si>
+  <si>
+    <t>工作证起始日期</t>
+  </si>
+  <si>
+    <t>第一次合同生效时间</t>
+  </si>
+  <si>
+    <t>第一次合同终止时间</t>
+  </si>
+  <si>
+    <t>第二次合同生效时间</t>
+  </si>
+  <si>
+    <t>第二次合同终止时间</t>
+  </si>
+  <si>
+    <t>第三次合同生效时间</t>
+  </si>
+  <si>
+    <t>第三次合同终止时间</t>
+  </si>
+  <si>
+    <t>到期合同</t>
+  </si>
+  <si>
+    <t>工商银行账号</t>
+  </si>
+  <si>
+    <t>入职租赁日期</t>
+  </si>
+  <si>
     <t>示例，该行不要删除</t>
   </si>
   <si>
@@ -205,6 +238,12 @@
     <t>个人原因</t>
   </si>
   <si>
+    <t>第一次</t>
+  </si>
+  <si>
+    <t>12312312312312</t>
+  </si>
+  <si>
     <t>小明</t>
   </si>
   <si>
@@ -214,6 +253,9 @@
     <t>440583199301111112</t>
   </si>
   <si>
+    <t>123123123123</t>
+  </si>
+  <si>
     <t>小红</t>
   </si>
   <si>
@@ -221,6 +263,9 @@
   </si>
   <si>
     <t>440583199301111113</t>
+  </si>
+  <si>
+    <t>123123123</t>
   </si>
 </sst>
 </file>
@@ -228,11 +273,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -267,9 +312,48 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,6 +365,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -288,11 +419,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,105 +454,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -419,19 +464,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +572,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,151 +620,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,6 +667,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -633,21 +687,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,11 +708,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,18 +732,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,152 +760,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -871,9 +916,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -886,9 +928,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1216,10 +1255,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AU4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AT11" sqref="AT11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3"/>
@@ -1257,49 +1296,55 @@
     <col min="34" max="34" width="17.8571428571429" style="2" customWidth="1"/>
     <col min="35" max="35" width="14.5803571428571" style="2" customWidth="1"/>
     <col min="36" max="36" width="12.7857142857143" customWidth="1"/>
+    <col min="37" max="37" width="21.2767857142857" style="2" customWidth="1"/>
+    <col min="38" max="38" width="17.8482142857143" style="2" customWidth="1"/>
+    <col min="39" max="44" width="21.4285714285714" style="2" customWidth="1"/>
+    <col min="45" max="45" width="12.7946428571429" customWidth="1"/>
+    <col min="46" max="46" width="19.6339285714286" style="3" customWidth="1"/>
+    <col min="47" max="47" width="18.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="2:36">
-      <c r="B1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="2:47">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -1311,7 +1356,7 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -1332,7 +1377,7 @@
       <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="AA1" s="1" t="s">
@@ -1350,97 +1395,130 @@
       <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AG1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AH1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AI1" s="4" t="s">
         <v>33</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AK1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" ht="53" spans="1:36">
-      <c r="A2" s="6" t="s">
-        <v>35</v>
+    <row r="2" ht="53" spans="1:47">
+      <c r="A2" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>33982</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="P2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="Q2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>51</v>
+        <v>61</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="T2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="U2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="V2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="W2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="X2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="Y2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Z2" s="2">
         <v>42370</v>
@@ -1449,19 +1527,19 @@
         <v>42370</v>
       </c>
       <c r="AB2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AC2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AD2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF2" s="11" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="AG2" s="2">
         <v>42370</v>
@@ -1473,81 +1551,114 @@
         <v>43466</v>
       </c>
       <c r="AJ2" t="s">
-        <v>62</v>
+        <v>73</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>43466</v>
       </c>
     </row>
-    <row r="3" spans="2:36">
+    <row r="3" spans="2:47">
       <c r="B3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2">
         <v>33982</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" t="s">
         <v>64</v>
       </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" s="10" t="s">
+      <c r="U3" t="s">
         <v>65</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U3" t="s">
-        <v>54</v>
-      </c>
       <c r="V3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="W3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="X3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Z3" s="2">
         <v>42370</v>
@@ -1556,19 +1667,19 @@
         <v>42370</v>
       </c>
       <c r="AB3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AC3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AD3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF3" s="11" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="AG3" s="2">
         <v>42370</v>
@@ -1580,81 +1691,114 @@
         <v>43466</v>
       </c>
       <c r="AJ3" t="s">
-        <v>62</v>
+        <v>73</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>43466</v>
       </c>
     </row>
-    <row r="4" spans="2:36">
+    <row r="4" spans="2:47">
       <c r="B4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2">
         <v>33982</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" t="s">
+        <v>66</v>
+      </c>
+      <c r="W4" t="s">
         <v>67</v>
       </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="10" t="s">
+      <c r="X4" t="s">
         <v>68</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" t="s">
-        <v>54</v>
-      </c>
-      <c r="V4" t="s">
-        <v>55</v>
-      </c>
-      <c r="W4" t="s">
-        <v>56</v>
-      </c>
-      <c r="X4" t="s">
-        <v>57</v>
-      </c>
       <c r="Y4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Z4" s="2">
         <v>42370</v>
@@ -1663,19 +1807,19 @@
         <v>42370</v>
       </c>
       <c r="AB4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AC4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AD4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF4" s="11" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="AG4" s="2">
         <v>42370</v>
@@ -1687,17 +1831,48 @@
         <v>43466</v>
       </c>
       <c r="AJ4" t="s">
-        <v>62</v>
+        <v>73</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>43466</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="20">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="格式" prompt="yyyy/MM/dd" sqref="AA1 AG1 AA2 AG2 AH2 AI2 Z3 AA3 AG3 AH3 AI3 Z4 AA4 AG4 AH4 AI4 Z1:Z2 Z5:Z1048576 AA5:AA1048576 AG5:AG1048576">
+  <dataValidations count="22">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="格式" prompt="yyyy/MM/dd" sqref="AA1 AA2 AG2 AH2 AI2 AK2 AL2 AM2 AN2 AO2 AP2 AQ2 AR2 AU2 Z3 AA3 AG3 AH3 AI3 AK3 AL3 AM3 AN3 AO3 AP3 AQ3 AR3 AU3 Z4 AA4 AG4 AH4 AI4 AK4 AL4 AM4 AN4 AO4 AP4 AQ4 AR4 AU4 Z1:Z2 Z5:Z1048576 AA5:AA1048576 AG5:AG1048576">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="格式" prompt="yyyy/MM/dd，可不填" sqref="AH1:AI1 AH5:AI1048576">
-      <formula1>1</formula1>
-    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG1:AI1 AK1 AL1 AM1 AN1 AO1 AP1 AQ1 AR1 AS1 AU1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="格式" prompt="A1,A2,A3,B1,B3,C1,C2,C3,C4,C5,D,E,F,M,N,P（多选逗号隔开）" sqref="H2 H3 H4 H5:H1048576"/>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="格式：" prompt="1990/1/1" sqref="C3 C4 C1:C2 C5:C1048576">
       <formula1>1</formula1>
@@ -1740,6 +1915,12 @@
       <formula1>"文职辅警,勤务辅警"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="格式" prompt="可不填" sqref="AJ3 AJ4 AJ1:AJ2 AJ5:AJ1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="格式" prompt="yyyy/MM/dd，可不填" sqref="AK5:AK1048576 AL5:AL1048576 AM5:AM1048576 AN5:AN1048576 AO5:AO1048576 AP5:AP1048576 AQ5:AQ1048576 AR5:AR1048576 AU5:AU1048576 AH5:AI1048576">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS1048576">
+      <formula1>"第一次,第二次,第三次"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/houtai/base/biz/main/src/main/resources/static/file/导入模板.xlsx
+++ b/houtai/base/biz/main/src/main/resources/static/file/导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23800" windowHeight="15940"/>
+    <workbookView windowWidth="23800" windowHeight="12340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>姓名</t>
   </si>
@@ -242,30 +242,6 @@
   </si>
   <si>
     <t>12312312312312</t>
-  </si>
-  <si>
-    <t>小明</t>
-  </si>
-  <si>
-    <t>PY000002</t>
-  </si>
-  <si>
-    <t>440583199301111112</t>
-  </si>
-  <si>
-    <t>123123123123</t>
-  </si>
-  <si>
-    <t>小红</t>
-  </si>
-  <si>
-    <t>PY000003</t>
-  </si>
-  <si>
-    <t>440583199301111113</t>
-  </si>
-  <si>
-    <t>123123123</t>
   </si>
 </sst>
 </file>
@@ -273,11 +249,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -312,9 +288,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,7 +325,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -335,7 +356,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,6 +393,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -356,104 +430,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -470,19 +446,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,103 +596,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,49 +614,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,8 +637,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,7 +647,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,30 +667,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -730,13 +682,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,153 +711,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1257,8 +1233,8 @@
   <sheetPr/>
   <dimension ref="A1:AU4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AT11" sqref="AT11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3"/>
@@ -1587,285 +1563,11 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="3" spans="2:47">
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="2">
-        <v>33982</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T3" t="s">
-        <v>64</v>
-      </c>
-      <c r="U3" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" t="s">
-        <v>66</v>
-      </c>
-      <c r="W3" t="s">
-        <v>67</v>
-      </c>
-      <c r="X3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>42370</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>42370</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG3" s="2">
-        <v>42370</v>
-      </c>
-      <c r="AH3" s="2">
-        <v>43466</v>
-      </c>
-      <c r="AI3" s="2">
-        <v>43466</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK3" s="2">
-        <v>43466</v>
-      </c>
-      <c r="AL3" s="2">
-        <v>43466</v>
-      </c>
-      <c r="AM3" s="2">
-        <v>43466</v>
-      </c>
-      <c r="AN3" s="2">
-        <v>43466</v>
-      </c>
-      <c r="AO3" s="2">
-        <v>43466</v>
-      </c>
-      <c r="AP3" s="2">
-        <v>43466</v>
-      </c>
-      <c r="AQ3" s="2">
-        <v>43466</v>
-      </c>
-      <c r="AR3" s="2">
-        <v>43466</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU3" s="2">
-        <v>43466</v>
-      </c>
+    <row r="3" spans="27:27">
+      <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="2:47">
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="2">
-        <v>33982</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>61</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T4" t="s">
-        <v>64</v>
-      </c>
-      <c r="U4" t="s">
-        <v>65</v>
-      </c>
-      <c r="V4" t="s">
-        <v>66</v>
-      </c>
-      <c r="W4" t="s">
-        <v>67</v>
-      </c>
-      <c r="X4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>42370</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>42370</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF4" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG4" s="2">
-        <v>42370</v>
-      </c>
-      <c r="AH4" s="2">
-        <v>43466</v>
-      </c>
-      <c r="AI4" s="2">
-        <v>43466</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK4" s="2">
-        <v>43466</v>
-      </c>
-      <c r="AL4" s="2">
-        <v>43466</v>
-      </c>
-      <c r="AM4" s="2">
-        <v>43466</v>
-      </c>
-      <c r="AN4" s="2">
-        <v>43466</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>43466</v>
-      </c>
-      <c r="AP4" s="2">
-        <v>43466</v>
-      </c>
-      <c r="AQ4" s="2">
-        <v>43466</v>
-      </c>
-      <c r="AR4" s="2">
-        <v>43466</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU4" s="2">
-        <v>43466</v>
-      </c>
+    <row r="4" spans="27:27">
+      <c r="AA4" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="22">

--- a/houtai/base/biz/main/src/main/resources/static/file/导入模板.xlsx
+++ b/houtai/base/biz/main/src/main/resources/static/file/导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23800" windowHeight="12340"/>
+    <workbookView windowWidth="23420" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
     <t>入职租赁日期</t>
   </si>
   <si>
-    <t>示例，该行不要删除</t>
+    <t>导入时请把该行删除</t>
   </si>
   <si>
     <t>小张</t>
@@ -249,11 +249,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -287,6 +287,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -294,15 +340,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,9 +386,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,105 +430,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -440,187 +440,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,8 +637,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,6 +648,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,17 +676,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,36 +718,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,148 +736,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1231,13 +1231,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AU4"/>
+  <dimension ref="A1:AU2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="11.4553571428571" customWidth="1"/>
     <col min="3" max="3" width="13.0892857142857" style="2" customWidth="1"/>
@@ -1262,7 +1262,7 @@
     <col min="24" max="24" width="11.0089285714286" customWidth="1"/>
     <col min="25" max="25" width="11.8928571428571" customWidth="1"/>
     <col min="26" max="26" width="15.7678571428571" style="2" customWidth="1"/>
-    <col min="27" max="27" width="16.3660714285714" customWidth="1"/>
+    <col min="27" max="27" width="16.3660714285714" style="2" customWidth="1"/>
     <col min="28" max="28" width="13.5357142857143" customWidth="1"/>
     <col min="29" max="29" width="11.3035714285714" customWidth="1"/>
     <col min="30" max="30" width="10.8571428571429" customWidth="1"/>
@@ -1356,7 +1356,7 @@
       <c r="Z1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AB1" s="1" t="s">
@@ -1562,12 +1562,6 @@
       <c r="AU2" s="2">
         <v>43466</v>
       </c>
-    </row>
-    <row r="3" spans="27:27">
-      <c r="AA3" s="2"/>
-    </row>
-    <row r="4" spans="27:27">
-      <c r="AA4" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="22">

--- a/houtai/base/biz/main/src/main/resources/static/file/导入模板.xlsx
+++ b/houtai/base/biz/main/src/main/resources/static/file/导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23420" windowHeight="15940"/>
+    <workbookView windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>姓名</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>人事组</t>
+  </si>
+  <si>
+    <t>政工办公室/人事组</t>
   </si>
   <si>
     <t>文职辅警</t>
@@ -249,11 +252,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -287,6 +290,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -296,17 +328,87 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,91 +421,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,21 +433,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -440,6 +443,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -458,169 +485,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,8 +640,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,23 +658,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,16 +721,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,148 +739,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1233,8 +1236,8 @@
   <sheetPr/>
   <dimension ref="A1:AU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
@@ -1264,7 +1267,7 @@
     <col min="26" max="26" width="15.7678571428571" style="2" customWidth="1"/>
     <col min="27" max="27" width="16.3660714285714" style="2" customWidth="1"/>
     <col min="28" max="28" width="13.5357142857143" customWidth="1"/>
-    <col min="29" max="29" width="11.3035714285714" customWidth="1"/>
+    <col min="29" max="29" width="24.0982142857143" customWidth="1"/>
     <col min="30" max="30" width="10.8571428571429" customWidth="1"/>
     <col min="31" max="31" width="17.4017857142857" customWidth="1"/>
     <col min="32" max="32" width="19.6428571428571" style="3" customWidth="1"/>
@@ -1506,16 +1509,16 @@
         <v>70</v>
       </c>
       <c r="AC2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE2" t="s">
         <v>66</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG2" s="2">
         <v>42370</v>
@@ -1527,7 +1530,7 @@
         <v>43466</v>
       </c>
       <c r="AJ2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK2" s="2">
         <v>43466</v>
@@ -1554,10 +1557,10 @@
         <v>43466</v>
       </c>
       <c r="AS2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU2" s="2">
         <v>43466</v>
